--- a/Data/La Pradera/DatosBurgerKing.xlsx
+++ b/Data/La Pradera/DatosBurgerKing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Centro_de_Investigaciones_UFM_CC/Prueba/PRD10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joserodolforojasmazariegos/Documents/2do Semestre 2019/Taller/Centro_de_Investigaciones_UFM_CC/Data/La Pradera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F51FC1C-FBBB-2644-90CF-50D805F7BEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D971DF-6EBF-914E-B7E8-840FB81FE328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="660" windowWidth="21200" windowHeight="11300" activeTab="3" xr2:uid="{5AF8730B-CC4F-3C43-BAE2-8E4752DD97AF}"/>
+    <workbookView xWindow="6740" yWindow="660" windowWidth="21200" windowHeight="11300" xr2:uid="{5AF8730B-CC4F-3C43-BAE2-8E4752DD97AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Dia 1" sheetId="5" r:id="rId1"/>
@@ -190,9 +190,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -208,11 +205,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,9 +1358,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,23 +1373,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="15"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2298,9 +2298,9 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2313,23 +2313,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="15"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="15"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3730,7 +3730,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A71"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3743,10 +3743,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3755,10 +3755,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3768,10 +3768,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
@@ -4887,689 +4887,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD5442-B5AA-7340-9742-076FB3C8126B}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="8" customWidth="1"/>
-    <col min="8" max="9" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.5" style="8"/>
+    <col min="1" max="1" width="9.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="23" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="7" customWidth="1"/>
+    <col min="8" max="9" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="14">
         <v>43720.528506944444</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>43720.530671296299</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>43720.531863425924</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>43720.534236111111</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>43720.530671296299</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>43720.531863425924</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>43720.534247685187</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>43720.530671296299</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>43720.532118055555</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>43720.534259259257</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>43720.531076388892</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>43720.532141203701</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>43720.535254629627</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>43720.532569444447</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>43720.533055555556</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>43720.534525462965</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>43720.533067129632</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>43720.533460648148</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>43720.535763888889</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>43720.535196759258</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>43720.535196759258</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>43720.536400462966</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>43720.535462962966</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>43720.535729166666</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>43720.536886574075</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>43720.536030092589</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>43720.536030092589</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>43720.537141203706</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>43720.536574074074</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>43720.536574074074</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>43720.537997685184</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>43720.536574074074</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>43720.537685185183</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>43720.538622685184</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>43720.539293981485</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>43720.539293981485</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>43720.540995370371</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>43720.541562500002</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>43720.541562500002</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>43720.542141203703</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>43720.541562500002</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>43720.541979166665</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>43720.54314814815</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>43720.544340277775</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>43720.544340277775</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>43720.545219907406</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>43720.546631944446</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>43720.546655092592</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>43720.547280092593</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>43720.547037037039</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>43720.547071759262</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>43720.548032407409</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>43720.547581018516</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>43720.547627314816</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>43720.548819444448</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>43720.549201388887</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>43720.549212962964</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>43720.550092592595</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>43720.549814814818</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>43720.549826388888</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>43720.550821759258</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>43720.550208333334</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>43720.550578703704</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>43720.552129629628</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>43720.550254629627</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>43720.55127314815</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>43720.552152777775</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>43720.55027777778</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>43720.551342592589</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>43720.55228009259</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>24</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>43720.551145833335</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>43720.55159722222</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>43720.552685185183</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>43720.552905092591</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>43720.552928240744</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>43720.553414351853</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>43720.553043981483</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>43720.553333333337</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>43720.553796296299</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>27</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>43720.553206018521</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>43720.553611111114</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>43720.554722222223</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>43720.553680555553</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>43720.554293981484</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>43720.555763888886</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>43720.553749999999</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>43720.554675925923</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>43720.555787037039</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>30</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>43720.554606481484</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>43720.555081018516</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>43720.556608796294</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>31</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>43720.555023148147</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>43720.555428240739</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>43720.55678240741</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>32</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>43720.555034722223</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>43720.555844907409</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>43720.557592592595</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>33</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>43720.555115740739</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>43720.556423611109</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>43720.558333333334</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>34</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>43720.555613425924</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>43720.556157407409</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>43720.557870370372</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>35</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>43720.557083333333</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>43720.557083333333</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>43720.558877314812</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>36</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>43720.558206018519</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>43720.559166666666</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>43720.559976851851</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>37</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>43720.558229166665</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>43720.558738425927</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>43720.559490740743</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>38</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>43720.558240740742</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>43720.55978009259</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>43720.560416666667</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>39</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>43720.559745370374</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>43720.560115740744</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>43720.560659722221</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>40</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>43720.559791666667</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>43720.56046296296</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>43720.561261574076</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>41</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>43720.560682870368</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>43720.560891203706</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>43720.561469907407</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="11"/>
+      <c r="F46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
